--- a/sample/CourtVerdicts.xlsx
+++ b/sample/CourtVerdicts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>word2vec subjects</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>sentiment</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -515,6 +520,11 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>מערער,ככל,העותר</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -568,6 +578,11 @@
           <t>וכן,המחוזי,המערערת,שבית,מתיימר,ביצע,הפיצוי,מינית,נמוך,המשפט</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -614,6 +629,11 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>כוח,חומר,הצהירה,משמעותי,יוארך,המשיב,העתירה,נוסף,המינהלי,ההצהרה</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -690,6 +710,11 @@
           <t>לאיחוד,אזרחית,א',תושב,העתירה,להתגורר,דחיית,שמיום,בידי,עבור</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -734,6 +759,11 @@
       <c r="H6" t="inlineStr">
         <is>
           <t>חזר,העתירה,העתירה,נמחקת,העותר,צו,לכך,בהמלצתנו</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -859,6 +889,11 @@
       <c r="H7" t="inlineStr">
         <is>
           <t>בחוות,ולהקלה,לנשיא,פנים,הנעשה,בהגדרת,עונשין,מדינה,פ,ההבנה</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -1392,6 +1427,11 @@
           <t>הפקודה,כהגדרת,א',במהלך,והאם,ידי,סעיף,כהגדרתו,במס,קיבל</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1440,6 +1480,11 @@
           <t>הערות,העותרים,מסוג,חזר,מוחקים,מעתירתו,להבהיר,הוצאות,המשפט,בהם</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1487,6 +1532,11 @@
           <t>חזרו,מערעורם,המשפט,והערעור,בהם,לאור,נדחה,שהתקיימו,בהמלצת,למשיבים</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1532,6 +1582,11 @@
           <t>נמחקת,צו,נתייתרה,להוצאות,ולפיכך,בלא,העתירה</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1574,6 +1629,11 @@
       <c r="H12" t="inlineStr">
         <is>
           <t>צו,כמבוקש,תימחק,להוצאות,העתירה</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -1633,6 +1693,11 @@
       <c r="H13" t="inlineStr">
         <is>
           <t>ועדה,המקומית,חשב,כהלכה,החליט,המועצה,בדבר,התושבים,מלינים,תקציביים</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -1699,6 +1764,11 @@
           <t>המשיב,א',רב,ההודעה,כנגד,לתקנות,לתקנה,הנזכרת,בחירות,התקנות</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1754,6 +1824,11 @@
           <t>בירושלים,ע',ידי,עבירה,החוק,העונשין,נשק,לסייע,סעיף,התשל</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1801,6 +1876,11 @@
       <c r="H16" t="inlineStr">
         <is>
           <t>העותרים,להוצאות,העתירה,עניין,האגרה,תימחק,החזר,לטיפולו,צו,הרשם</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -1882,6 +1962,11 @@
           <t>המבקשת,רשות,ע',דינו,בפנינו,כב',מיום,ארנונה,לערך,ערעורה</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1927,6 +2012,11 @@
           <t>האמור,מתייתר,המערער,הצורך,בערעור,בהודעת,להכריע,אפוא,מיום,נמחק</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1970,6 +2060,11 @@
       <c r="H19" t="inlineStr">
         <is>
           <t>יינתנו,נימוקינו,העתירה,בנפרד,דוחים</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2073,6 +2168,11 @@
           <t>בעבירות,ע',עבירה,המחוזי,במרכזו,תשל,לשישה,וכן,בהם,סעיף</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2124,6 +2224,11 @@
           <t>נישאו,תושבות,החל,נחה,העותר,אלימות,האלימות,חודשים,פאראגווי,כלפי</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2166,6 +2271,11 @@
       <c r="H22" t="inlineStr">
         <is>
           <t>העתירה,בלא,ולפיכך,צו,הבקשה,התייתר,להוצאות,אגרה,נמחקת,להחזר</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -2211,6 +2321,11 @@
       <c r="H23" t="inlineStr">
         <is>
           <t>להוצאות,העותר,נמחקת,הבקשה,אגרה,העתירה,להחזר,צו,לבקשת</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -2291,6 +2406,11 @@
       <c r="H24" t="inlineStr">
         <is>
           <t>ההיתרים,והעומדים,א',להמשך,המשיבים,לכלל,עובדים,העובדה,בפני,האשרה</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -2389,6 +2509,11 @@
           <t>ונדון,ס',שנות,יפו,בהכרעת,לריצוי,המשפט,מכשיר,מאוים,בענישתם</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2476,6 +2601,11 @@
           <t>נסיבות,א',הריגה,בפנינו,במסגרת,הבאות,עלפי,עימות,שאינם,ההרשעה</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2524,6 +2654,11 @@
       <c r="H27" t="inlineStr">
         <is>
           <t>לענינים,שיהוי,דחה,דיננו,למותר,הצדדים,בבאר,העתירה,פי,למנוע</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -2584,6 +2719,11 @@
       <c r="H28" t="inlineStr">
         <is>
           <t>דחוף,משיגים,נשק,לבקשה,בחיפה,ראיה,הודעת,החלטות,הארץ,הדין</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -2649,6 +2789,11 @@
           <t>מפלגה,א',באותיות,עניינים,החובה,אזרחותם,ביחס,טענה,לפגוע,ואינה</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2697,6 +2842,11 @@
       <c r="H30" t="inlineStr">
         <is>
           <t>א',עמדת,רשות,המבקש,לוי,בטלים,המשיבה,השלום,א',יוחזר</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -2838,6 +2988,11 @@
           <t>מוסק,החלטתו,בירושלים,כב',שהפקיעה,לפצות,יעשה,השרעי,לווקף,לבית</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2880,6 +3035,11 @@
       <c r="H32" t="inlineStr">
         <is>
           <t>משפטי,בסכסוך,מתנהל,סכסוך,עשרות,הדין</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -2928,6 +3088,11 @@
       <c r="H33" t="inlineStr">
         <is>
           <t>החלטת,מרזל,הרשם,מיום,קבע,כב',אשר,להגיש,וערעור,יגאל</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -2993,6 +3158,11 @@
           <t>המערער,א',המערער,מסוג,מועדים,המערער,כנגד,ובית,קשות,בביצועה</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3038,6 +3208,11 @@
       <c r="H35" t="inlineStr">
         <is>
           <t>המוסכם,הדין,הערעורים,המשפט,מבוטלים,מתקבלים,המחוזי,צו,ופסקי,וזאת</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -3099,6 +3274,11 @@
           <t>בחודש,א',המשפט,שנערך,כתב,ביצועה,טיעון,חולט,עת,בעבירות</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3142,6 +3322,11 @@
       <c r="H37" t="inlineStr">
         <is>
           <t>הגיש,האזורי,הדין,בתל,דחופה,לבית,בקשה,הלכתי,הרבני,לגירושין</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -3190,6 +3375,11 @@
       <c r="H38" t="inlineStr">
         <is>
           <t>מלין,לטענתו,תחושה,שיפוטיות,השופטת,החלטות,להידחות,אובייקטיבי,החלטות,סובייקטיבית</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -3278,6 +3468,11 @@
           <t>מתנהל,א',שהוגש,שכנו,הציבור,בעניין,בהחלטה,מח,המדינה,סכסוך</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3361,6 +3556,11 @@
           <t>מ',חוייב,בעבירה,מתוכם,ובסופו,חומרת,והורשע,המערער,בקרקפת,לפצות</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3429,6 +3629,11 @@
           <t>תקופת,א',אונו,שיפוטית,עתירה,הרשות,שירותי,הקרבות,סמכויות,המועצה</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3487,6 +3692,11 @@
           <t>בלשכת,מ',חטיבת,הכנסה,מס,עומדות,ולניהול,התקנות,הצדדים,האמור</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sample/CourtVerdicts.xlsx
+++ b/sample/CourtVerdicts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>autoencoder subjects</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>sentiment</t>
         </is>
       </c>
@@ -523,6 +528,11 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>העותר,ככל,ש,מערער</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>neutral</t>
         </is>
@@ -580,6 +590,11 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>המשיב,על,הוא,את,בתל</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>negative</t>
         </is>
       </c>
@@ -632,6 +647,11 @@
         </is>
       </c>
       <c r="I4" t="inlineStr">
+        <is>
+          <t>משמעותי,חומר,באת,נוסף,המשיב</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>neutral</t>
         </is>
@@ -712,6 +732,11 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>המאמת,השופט,דרש,שונים,משפחות</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>negative</t>
         </is>
       </c>
@@ -762,6 +787,11 @@
         </is>
       </c>
       <c r="I6" t="inlineStr">
+        <is>
+          <t>לכך,בהמלצתנו,מן,אי,בו</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
@@ -892,6 +922,11 @@
         </is>
       </c>
       <c r="I7" t="inlineStr">
+        <is>
+          <t>הפרסונאלית,מכוח,והיא,דברינו,נעברה</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
@@ -1429,6 +1464,11 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>עוסק,בסעיף,וכי,שהופקו,המערער</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>neutral</t>
         </is>
       </c>
@@ -1482,6 +1522,11 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>ובערעורים,ובמקרה,בסכומים,הערות,אנו</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>negative</t>
         </is>
       </c>
@@ -1534,6 +1579,11 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>בהמלצת,שח,טרחת,קדם,עוד</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>neutral</t>
         </is>
       </c>
@@ -1584,6 +1634,11 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>נתייתרה,היא,העתירה,להוצאות,בלא</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>neutral</t>
         </is>
       </c>
@@ -1632,6 +1687,11 @@
         </is>
       </c>
       <c r="I12" t="inlineStr">
+        <is>
+          <t>ללא,העתירה,תימחק,להוצאות,כמבוקש</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>neutral</t>
         </is>
@@ -1696,6 +1756,11 @@
         </is>
       </c>
       <c r="I13" t="inlineStr">
+        <is>
+          <t>מספר,לא,צלחו,מחליטים,סמכות</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
@@ -1766,6 +1831,11 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>הסמכות,מופנית,ג,ועדת,ולמועצה</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>negative</t>
         </is>
       </c>
@@ -1826,6 +1896,11 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>מחמת,לסייע,במלחמה,להלן,השופטת</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>negative</t>
         </is>
       </c>
@@ -1879,6 +1954,11 @@
         </is>
       </c>
       <c r="I16" t="inlineStr">
+        <is>
+          <t>ללא,של,כבוד,יועבר,לבקשת</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>neutral</t>
         </is>
@@ -1964,6 +2044,11 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>חויבה,מנהיים,את,כחברת,לשלם</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>neutral</t>
         </is>
       </c>
@@ -2014,6 +2099,11 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>מיום,בהודעת,הצורך,נמחק,נוכח</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>neutral</t>
         </is>
       </c>
@@ -2063,6 +2153,11 @@
         </is>
       </c>
       <c r="I19" t="inlineStr">
+        <is>
+          <t>בנפרד,דוחים,נימוקינו,יינתנו,העתירה</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -2170,6 +2265,11 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>איתה,הורשע,כולם,ניסיון,על</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>negative</t>
         </is>
       </c>
@@ -2226,6 +2326,11 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>נדחית,מונחת,ילדים,תושבות,נוקט</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
           <t>negative</t>
         </is>
       </c>
@@ -2274,6 +2379,11 @@
         </is>
       </c>
       <c r="I22" t="inlineStr">
+        <is>
+          <t>את,היא,צו,התייתר,להוצאות</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>neutral</t>
         </is>
@@ -2324,6 +2434,11 @@
         </is>
       </c>
       <c r="I23" t="inlineStr">
+        <is>
+          <t>לבקשת,הבקשה,צו,להחזר,אין</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>neutral</t>
         </is>
@@ -2409,6 +2524,11 @@
         </is>
       </c>
       <c r="I24" t="inlineStr">
+        <is>
+          <t>עתה,על,שהייה,–,שנת</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
@@ -2511,6 +2631,11 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>נגרם,חלק,חד,בחזהו,ס</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
           <t>negative</t>
         </is>
       </c>
@@ -2603,6 +2728,11 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>עקב,בחדר,עליו,השופטת,הנקי</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
           <t>negative</t>
         </is>
       </c>
@@ -2657,6 +2787,11 @@
         </is>
       </c>
       <c r="I27" t="inlineStr">
+        <is>
+          <t>והגענו,משא,אי,המחוזי,למסקנה</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
@@ -2722,6 +2857,11 @@
         </is>
       </c>
       <c r="I28" t="inlineStr">
+        <is>
+          <t>בירושלים,השאר,המצדיק,תיגרע,בפרשה</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
@@ -2791,6 +2931,11 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
+          <t>המדינה,אם,בעבור,ההתאגדות,להידחות</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
           <t>negative</t>
         </is>
       </c>
@@ -2845,6 +2990,11 @@
         </is>
       </c>
       <c r="I30" t="inlineStr">
+        <is>
+          <t>מתקבל,לוי,לתעבורה,לקיים,השופט</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>neutral</t>
         </is>
@@ -2990,6 +3140,11 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
+          <t>מלדון,במקביל,לבית,הינו,המחוזי</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
           <t>negative</t>
         </is>
       </c>
@@ -3038,6 +3193,11 @@
         </is>
       </c>
       <c r="I32" t="inlineStr">
+        <is>
+          <t>בין,משפטי,בעלי,מתנהל,שנים</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
@@ -3091,6 +3251,11 @@
         </is>
       </c>
       <c r="I33" t="inlineStr">
+        <is>
+          <t>עא,הרשם,על,כב,הוגש</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>neutral</t>
         </is>
@@ -3160,6 +3325,11 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
+          <t>חודשי,הוכחה,בעבירות,האמורות,בגזר</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
           <t>negative</t>
         </is>
       </c>
@@ -3211,6 +3381,11 @@
         </is>
       </c>
       <c r="I35" t="inlineStr">
+        <is>
+          <t>הדין,צו,המשפט,להוצאות,של</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>neutral</t>
         </is>
@@ -3276,6 +3451,11 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
+          <t>בתיק,בעונש,ובעקבות,כמו,עתרה</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
           <t>negative</t>
         </is>
       </c>
@@ -3325,6 +3505,11 @@
         </is>
       </c>
       <c r="I37" t="inlineStr">
+        <is>
+          <t>הרבני,לתיקון,העותר,של,אביב</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>neutral</t>
         </is>
@@ -3378,6 +3563,11 @@
         </is>
       </c>
       <c r="I38" t="inlineStr">
+        <is>
+          <t>כמה,תחושה,כל,הערעור,מקרה</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
@@ -3470,6 +3660,11 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
+          <t>בסלילת,מתנהל,מיום,ישראל,והנוגע</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
           <t>negative</t>
         </is>
       </c>
@@ -3558,6 +3753,11 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
+          <t>מקום,מ,כן,הוא,עדיין</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
           <t>negative</t>
         </is>
       </c>
@@ -3631,6 +3831,11 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
+          <t>לסעיף,הועברו,נתונה,חידוש,השר</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
           <t>neutral</t>
         </is>
       </c>
@@ -3694,6 +3899,11 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
+          <t>ביום,הזמנים,נחתמו,עליהם,התקנות</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
           <t>neutral</t>
         </is>
       </c>

--- a/sample/CourtVerdicts.xlsx
+++ b/sample/CourtVerdicts.xlsx
@@ -529,12 +529,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>העותר,ככל,ש,מערער</t>
+          <t>ככל,ש,העותר,מערער</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -590,12 +590,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>המשיב,על,הוא,את,בתל</t>
+          <t>ההכרעה,מינית,אותה,את,כולל</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>משמעותי,חומר,באת,נוסף,המשיב</t>
+          <t>הצהירה,ב,ההצהרה,כוח,נמחקת</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -732,12 +732,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>המאמת,השופט,דרש,שונים,משפחות</t>
+          <t>בקשתה,ברם,השופט,הפנים,מטעמים</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -788,12 +788,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>לכך,בהמלצתנו,מן,אי,בו</t>
+          <t>מן,לכך,בו,חזר,צו</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -923,12 +923,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>הפרסונאלית,מכוח,והיא,דברינו,נעברה</t>
+          <t>אותנו,מדינה,והנחדלים,וכך,מ</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -1464,12 +1464,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>עוסק,בסעיף,וכי,שהופקו,המערער</t>
+          <t>כנספח,אלה,המיסוי,הוא,משפחתו</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -1522,12 +1522,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>ובערעורים,ובמקרה,בסכומים,הערות,אנו</t>
+          <t>כוח,עוד,כי,השאיר,גבוהים</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -1579,12 +1579,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>בהמלצת,שח,טרחת,קדם,עוד</t>
+          <t>אנו,קדם,בהמלצת,שכר,זה</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -1634,12 +1634,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>נתייתרה,היא,העתירה,להוצאות,בלא</t>
+          <t>בלא,נתייתרה,העתירה,להוצאות,היא</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -1688,12 +1688,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>ללא,העתירה,תימחק,להוצאות,כמבוקש</t>
+          <t>כמבוקש,העתירה,תימחק,ללא,צו</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -1757,12 +1757,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>מספר,לא,צלחו,מחליטים,סמכות</t>
+          <t>הפנים,החליט,העותרים,ראש,ההחלטה</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -1831,12 +1831,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>הסמכות,מופנית,ג,ועדת,ולמועצה</t>
+          <t>השופט,התקנות,הנזכרת,הבחירה,יש</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -1896,12 +1896,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>מחמת,לסייע,במלחמה,להלן,השופטת</t>
+          <t>למכור,ביקש,ידי,מעבירות,נשק</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -1955,12 +1955,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>ללא,של,כבוד,יועבר,לבקשת</t>
+          <t>החזר,יועבר,הרשם,עניין,צו</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2044,12 +2044,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>חויבה,מנהיים,את,כחברת,לשלם</t>
+          <t>כדין,בגין,מ,כחברת,דרישה</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2099,12 +2099,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>מיום,בהודעת,הצורך,נמחק,נוכח</t>
+          <t>האמור,בערעור,נמחק,נוכח,מתייתר</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>בנפרד,דוחים,נימוקינו,יינתנו,העתירה</t>
+          <t>דוחים,בנפרד,העתירה,נימוקינו,יינתנו</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2265,12 +2265,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>איתה,הורשע,כולם,ניסיון,על</t>
+          <t>כבוד,משפחה,המערער,וסעיף,בר</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2326,12 +2326,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>נדחית,מונחת,ילדים,תושבות,נוקט</t>
+          <t>נדחית,הופסקו,בעתירה,ואין,לנשים</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2380,12 +2380,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>את,היא,צו,התייתר,להוצאות</t>
+          <t>צו,נמחקת,להחזר,אגרה,התייתר</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2435,12 +2435,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>לבקשת,הבקשה,צו,להחזר,אין</t>
+          <t>צו,העתירה,את,לבקשת,נמחקת</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2525,12 +2525,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>עתה,על,שהייה,–,שנת</t>
+          <t>עיקר,יפוג,יחדשו,עד,במהלך</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2631,12 +2631,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>נגרם,חלק,חד,בחזהו,ס</t>
+          <t>שנים,מאסר,בפועל,של,מדינת</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2728,12 +2728,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>עקב,בחדר,עליו,השופטת,הנקי</t>
+          <t>אחר,והמנוח,דקירה,מאסר,בלבו</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2788,12 +2788,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>והגענו,משא,אי,המחוזי,למסקנה</t>
+          <t>בחנו,התכנון,של,למותר,הדין</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2858,12 +2858,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>בירושלים,השאר,המצדיק,תיגרע,בפרשה</t>
+          <t>לבקשה,השבוע,להשתחרר,ביניים,אזרחיים</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2931,12 +2931,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>המדינה,אם,בעבור,ההתאגדות,להידחות</t>
+          <t>מספר,לרישום,אם,האלף,כינוי</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>מתקבל,לוי,לתעבורה,לקיים,השופט</t>
+          <t>בעניינו,השופט,עמדת,בית,ופסקי</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>מלדון,במקביל,לבית,הינו,המחוזי</t>
+          <t>הגיש,בית,התביעה,בניגוד,היכן</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3194,12 +3194,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>בין,משפטי,בעלי,מתנהל,שנים</t>
+          <t>שנים,זה,בעלי,בין,משפטי</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3252,12 +3252,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>עא,הרשם,על,כב,הוגש</t>
+          <t>וערעור,להגיש,מיום,קבע,מרזל</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3325,12 +3325,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>חודשי,הוכחה,בעבירות,האמורות,בגזר</t>
+          <t>מסוכן,בא,החזקת,חומרתן,זה</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3382,12 +3382,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>הדין,צו,המשפט,להוצאות,של</t>
+          <t>צו,המשפט,מבוטלים,המחוזי,בית</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3451,12 +3451,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>בתיק,בעונש,ובעקבות,כמו,עתרה</t>
+          <t>עצמית,למערער,עליו,למשך,זה</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3506,12 +3506,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>הרבני,לתיקון,העותר,של,אביב</t>
+          <t>לבית,האזורי,בתל,בקשה,הגיש</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3564,12 +3564,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>כמה,תחושה,כל,הערעור,מקרה</t>
+          <t>על,עד,לפנינו,מקרה,כלפיו</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3660,12 +3660,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>בסלילת,מתנהל,מיום,ישראל,והנוגע</t>
+          <t>במשרד,שנים,מחש,במשטרת,אין</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3753,12 +3753,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>מקום,מ,כן,הוא,עדיין</t>
+          <t>שוחרר,המערער,עונש,שתי,לשנים</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3831,12 +3831,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>לסעיף,הועברו,נתונה,חידוש,השר</t>
+          <t>יחדש,ברשות,ששה,חידוש,הרכב</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3899,12 +3899,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>ביום,הזמנים,נחתמו,עליהם,התקנות</t>
+          <t>של,הגמל,קשר,טוענים,הכרח</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
